--- a/teaching/traditional_assets/database/data/qatar/qatar_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_insurance_general.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.08289999999999999</v>
+        <v>0.0445</v>
       </c>
       <c r="E2">
-        <v>-0.04480000000000001</v>
+        <v>-0.0169</v>
       </c>
       <c r="G2">
-        <v>0.3080568720379147</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="H2">
-        <v>0.3080568720379147</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="I2">
-        <v>0.2859399684044234</v>
+        <v>0.4640522875816994</v>
       </c>
       <c r="J2">
-        <v>0.2859399684044234</v>
+        <v>0.4640522875816994</v>
       </c>
       <c r="K2">
-        <v>17.9</v>
+        <v>19.6</v>
       </c>
       <c r="L2">
-        <v>0.282780410742496</v>
+        <v>0.4270152505446623</v>
       </c>
       <c r="M2">
-        <v>16.5</v>
+        <v>19.8</v>
       </c>
       <c r="N2">
-        <v>0.05995639534883721</v>
+        <v>0.06964474147027787</v>
       </c>
       <c r="O2">
-        <v>0.9217877094972068</v>
+        <v>1.010204081632653</v>
       </c>
       <c r="P2">
-        <v>16.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q2">
-        <v>0.05995639534883721</v>
+        <v>0.06964474147027787</v>
       </c>
       <c r="R2">
-        <v>0.9217877094972068</v>
+        <v>1.010204081632653</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,31 +639,31 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>72</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V2">
-        <v>0.2616279069767442</v>
+        <v>0.2817446359479423</v>
       </c>
       <c r="W2">
-        <v>0.1834016393442623</v>
+        <v>0.1946375372393247</v>
       </c>
       <c r="X2">
-        <v>0.05023928977165057</v>
+        <v>0.04436545039956676</v>
       </c>
       <c r="Y2">
-        <v>0.1331623495726117</v>
+        <v>0.150272086839758</v>
       </c>
       <c r="Z2">
-        <v>1.385120350109409</v>
+        <v>1.599303135888501</v>
       </c>
       <c r="AA2">
-        <v>0.3960612691466084</v>
+        <v>0.7421602787456445</v>
       </c>
       <c r="AB2">
-        <v>0.05023928977165057</v>
+        <v>0.04436545039956676</v>
       </c>
       <c r="AC2">
-        <v>0.3458219793749578</v>
+        <v>0.6977948283460778</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-72</v>
+        <v>-80.09999999999999</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.3543307086614174</v>
+        <v>-0.3922624877571008</v>
       </c>
       <c r="AK2">
-        <v>-2.508710801393728</v>
+        <v>-3.282786885245901</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>-3.6</v>
+        <v>-3.467532467532467</v>
       </c>
     </row>
     <row r="3">
@@ -719,46 +719,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.08289999999999999</v>
+        <v>0.0445</v>
       </c>
       <c r="E3">
-        <v>-0.04480000000000001</v>
+        <v>-0.0169</v>
       </c>
       <c r="G3">
-        <v>0.3080568720379147</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="H3">
-        <v>0.3080568720379147</v>
+        <v>0.5163398692810458</v>
       </c>
       <c r="I3">
-        <v>0.2859399684044234</v>
+        <v>0.4640522875816994</v>
       </c>
       <c r="J3">
-        <v>0.2859399684044234</v>
+        <v>0.4640522875816994</v>
       </c>
       <c r="K3">
-        <v>17.9</v>
+        <v>19.6</v>
       </c>
       <c r="L3">
-        <v>0.282780410742496</v>
+        <v>0.4270152505446623</v>
       </c>
       <c r="M3">
-        <v>16.5</v>
+        <v>19.8</v>
       </c>
       <c r="N3">
-        <v>0.05995639534883721</v>
+        <v>0.06964474147027787</v>
       </c>
       <c r="O3">
-        <v>0.9217877094972068</v>
+        <v>1.010204081632653</v>
       </c>
       <c r="P3">
-        <v>16.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q3">
-        <v>0.05995639534883721</v>
+        <v>0.06964474147027787</v>
       </c>
       <c r="R3">
-        <v>0.9217877094972068</v>
+        <v>1.010204081632653</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -767,31 +767,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>72</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="V3">
-        <v>0.2616279069767442</v>
+        <v>0.2817446359479423</v>
       </c>
       <c r="W3">
-        <v>0.1834016393442623</v>
+        <v>0.1946375372393247</v>
       </c>
       <c r="X3">
-        <v>0.05023928977165057</v>
+        <v>0.04436545039956676</v>
       </c>
       <c r="Y3">
-        <v>0.1331623495726117</v>
+        <v>0.150272086839758</v>
       </c>
       <c r="Z3">
-        <v>1.385120350109409</v>
+        <v>1.599303135888501</v>
       </c>
       <c r="AA3">
-        <v>0.3960612691466084</v>
+        <v>0.7421602787456445</v>
       </c>
       <c r="AB3">
-        <v>0.05023928977165057</v>
+        <v>0.04436545039956676</v>
       </c>
       <c r="AC3">
-        <v>0.3458219793749578</v>
+        <v>0.6977948283460778</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-72</v>
+        <v>-80.09999999999999</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.3543307086614174</v>
+        <v>-0.3922624877571008</v>
       </c>
       <c r="AK3">
-        <v>-2.508710801393728</v>
+        <v>-3.282786885245901</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.6</v>
+        <v>-3.467532467532467</v>
       </c>
     </row>
   </sheetData>
